--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.8254805462898</v>
+        <v>385.0738176465532</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.8662057332095</v>
+        <v>526.8749855618786</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.844588905355</v>
+        <v>476.5907764135386</v>
       </c>
       <c r="AD2" t="n">
-        <v>298825.4805462898</v>
+        <v>385073.8176465532</v>
       </c>
       <c r="AE2" t="n">
-        <v>408866.2057332095</v>
+        <v>526874.9855618785</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609210272172297e-06</v>
+        <v>2.319941184386006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>369844.588905355</v>
+        <v>476590.7764135386</v>
       </c>
     </row>
     <row r="3">
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.7432397433535</v>
+        <v>292.1769038202918</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.081324406887</v>
+        <v>399.7693297421949</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.8195278320216</v>
+        <v>361.6159059913773</v>
       </c>
       <c r="AD3" t="n">
-        <v>231743.2397433535</v>
+        <v>292176.9038202919</v>
       </c>
       <c r="AE3" t="n">
-        <v>317081.324406887</v>
+        <v>399769.329742195</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018153499355417e-06</v>
+        <v>2.909500082451668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.06510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>286819.5278320216</v>
+        <v>361615.9059913773</v>
       </c>
     </row>
     <row r="4">
@@ -3264,28 +3264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.1191487202186</v>
+        <v>272.0154093749458</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.916580263282</v>
+        <v>372.1834835797127</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.3926119014061</v>
+        <v>336.6628142696641</v>
       </c>
       <c r="AD4" t="n">
-        <v>203119.1487202187</v>
+        <v>272015.4093749458</v>
       </c>
       <c r="AE4" t="n">
-        <v>277916.580263282</v>
+        <v>372183.4835797127</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.174168141506785e-06</v>
+        <v>3.134420840138362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>251392.6119014061</v>
+        <v>336662.8142696641</v>
       </c>
     </row>
     <row r="5">
@@ -3370,28 +3370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.3939235231915</v>
+        <v>257.8274980915751</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.0830745696038</v>
+        <v>352.770957435168</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.3067249967358</v>
+        <v>319.1029923748093</v>
       </c>
       <c r="AD5" t="n">
-        <v>197393.9235231915</v>
+        <v>257827.4980915751</v>
       </c>
       <c r="AE5" t="n">
-        <v>270083.0745696038</v>
+        <v>352770.957435168</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.249234432523961e-06</v>
+        <v>3.242641240605209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>244306.7249967358</v>
+        <v>319102.9923748093</v>
       </c>
     </row>
     <row r="6">
@@ -3476,28 +3476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>193.4700703218876</v>
+        <v>253.733052689679</v>
       </c>
       <c r="AB6" t="n">
-        <v>264.7142855113966</v>
+        <v>347.1687566021139</v>
       </c>
       <c r="AC6" t="n">
-        <v>239.4503256310994</v>
+        <v>314.0354577265219</v>
       </c>
       <c r="AD6" t="n">
-        <v>193470.0703218876</v>
+        <v>253733.052689679</v>
       </c>
       <c r="AE6" t="n">
-        <v>264714.2855113966</v>
+        <v>347168.756602114</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.302056266035113e-06</v>
+        <v>3.318792598272024e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>239450.3256310994</v>
+        <v>314035.4577265219</v>
       </c>
     </row>
     <row r="7">
@@ -3582,28 +3582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.0374070566682</v>
+        <v>241.3856407704803</v>
       </c>
       <c r="AB7" t="n">
-        <v>247.7033671415392</v>
+        <v>330.2744828849058</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.0629054354819</v>
+        <v>298.7535497816166</v>
       </c>
       <c r="AD7" t="n">
-        <v>181037.4070566682</v>
+        <v>241385.6407704802</v>
       </c>
       <c r="AE7" t="n">
-        <v>247703.3671415392</v>
+        <v>330274.4828849058</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.342553783110611e-06</v>
+        <v>3.377176427503983e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH7" t="n">
-        <v>224062.9054354819</v>
+        <v>298753.5497816167</v>
       </c>
     </row>
     <row r="8">
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>178.8045404253734</v>
+        <v>239.1527741391854</v>
       </c>
       <c r="AB8" t="n">
-        <v>244.6482605094797</v>
+        <v>327.2193762528463</v>
       </c>
       <c r="AC8" t="n">
-        <v>221.2993738925161</v>
+        <v>295.9900182386509</v>
       </c>
       <c r="AD8" t="n">
-        <v>178804.5404253734</v>
+        <v>239152.7741391854</v>
       </c>
       <c r="AE8" t="n">
-        <v>244648.2605094797</v>
+        <v>327219.3762528463</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.356208565525116e-06</v>
+        <v>3.396862041394874e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>221299.3738925161</v>
+        <v>295990.0182386509</v>
       </c>
     </row>
     <row r="9">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>176.0799855953823</v>
+        <v>236.4282193091944</v>
       </c>
       <c r="AB9" t="n">
-        <v>240.9204043922119</v>
+        <v>323.4915201355785</v>
       </c>
       <c r="AC9" t="n">
-        <v>217.9272991310002</v>
+        <v>292.617943477135</v>
       </c>
       <c r="AD9" t="n">
-        <v>176079.9855953823</v>
+        <v>236428.2193091944</v>
       </c>
       <c r="AE9" t="n">
-        <v>240920.4043922119</v>
+        <v>323491.5201355785</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.382724519068496e-06</v>
+        <v>3.435089148027442e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>217927.2991310002</v>
+        <v>292617.943477135</v>
       </c>
     </row>
     <row r="10">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>176.269332493372</v>
+        <v>236.617566207184</v>
       </c>
       <c r="AB10" t="n">
-        <v>241.1794771714368</v>
+        <v>323.7505929148034</v>
       </c>
       <c r="AC10" t="n">
-        <v>218.161646367787</v>
+        <v>292.8522907139217</v>
       </c>
       <c r="AD10" t="n">
-        <v>176269.332493372</v>
+        <v>236617.566207184</v>
       </c>
       <c r="AE10" t="n">
-        <v>241179.4771714368</v>
+        <v>323750.5929148034</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.381790858732461e-06</v>
+        <v>3.433743123146013e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>218161.646367787</v>
+        <v>292852.2907139217</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.3997183934915</v>
+        <v>322.0711895339502</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.1349650941992</v>
+        <v>440.6720102984288</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.9592771976045</v>
+        <v>398.6148921225969</v>
       </c>
       <c r="AD2" t="n">
-        <v>246399.7183934915</v>
+        <v>322071.1895339502</v>
       </c>
       <c r="AE2" t="n">
-        <v>337134.9650941992</v>
+        <v>440672.0102984288</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.861426753561658e-06</v>
+        <v>2.725058742288965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.88802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>304959.2771976045</v>
+        <v>398614.8921225969</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.8204001563056</v>
+        <v>261.6571136953087</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.5078192982799</v>
+        <v>358.0108064550796</v>
       </c>
       <c r="AC3" t="n">
-        <v>251.0228625092041</v>
+        <v>323.8427575583287</v>
       </c>
       <c r="AD3" t="n">
-        <v>202820.4001563056</v>
+        <v>261657.1136953087</v>
       </c>
       <c r="AE3" t="n">
-        <v>277507.8192982799</v>
+        <v>358010.8064550796</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.22364785813142e-06</v>
+        <v>3.255336813000438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>251022.8625092041</v>
+        <v>323842.7575583287</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.8027674033243</v>
+        <v>244.5541400877525</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.2235434006919</v>
+        <v>334.60976343512</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.960805223588</v>
+        <v>302.6750772407242</v>
       </c>
       <c r="AD4" t="n">
-        <v>185802.7674033243</v>
+        <v>244554.1400877525</v>
       </c>
       <c r="AE4" t="n">
-        <v>254223.5434006919</v>
+        <v>334609.76343512</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360171964873467e-06</v>
+        <v>3.455202969376858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>229960.805223588</v>
+        <v>302675.0772407242</v>
       </c>
     </row>
     <row r="5">
@@ -4515,28 +4515,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.3515997577572</v>
+        <v>231.188223788206</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.8190624044014</v>
+        <v>316.3219270914788</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.3128220627263</v>
+        <v>286.1326063305748</v>
       </c>
       <c r="AD5" t="n">
-        <v>172351.5997577572</v>
+        <v>231188.223788206</v>
       </c>
       <c r="AE5" t="n">
-        <v>235819.0624044014</v>
+        <v>316321.9270914788</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.434108437254816e-06</v>
+        <v>3.563443183530483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>213312.8220627263</v>
+        <v>286132.6063305748</v>
       </c>
     </row>
     <row r="6">
@@ -4621,28 +4621,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>168.563644963482</v>
+        <v>227.4002689939308</v>
       </c>
       <c r="AB6" t="n">
-        <v>230.6362155421054</v>
+        <v>311.1390802291828</v>
       </c>
       <c r="AC6" t="n">
-        <v>208.6246188307949</v>
+        <v>281.4444030986434</v>
       </c>
       <c r="AD6" t="n">
-        <v>168563.644963482</v>
+        <v>227400.2689939308</v>
       </c>
       <c r="AE6" t="n">
-        <v>230636.2155421054</v>
+        <v>311139.0802291827</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.473032537019262e-06</v>
+        <v>3.620426601301758e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>208624.6188307949</v>
+        <v>281444.4030986434</v>
       </c>
     </row>
     <row r="7">
@@ -4727,28 +4727,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.2021634613439</v>
+        <v>225.0387874917927</v>
       </c>
       <c r="AB7" t="n">
-        <v>227.4051323696706</v>
+        <v>307.9079970567479</v>
       </c>
       <c r="AC7" t="n">
-        <v>205.7019057014825</v>
+        <v>278.521689969331</v>
       </c>
       <c r="AD7" t="n">
-        <v>166202.1634613439</v>
+        <v>225038.7874917927</v>
       </c>
       <c r="AE7" t="n">
-        <v>227405.1323696706</v>
+        <v>307907.9970567479</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.500269748268825e-06</v>
+        <v>3.660300853935752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>205701.9057014825</v>
+        <v>278521.689969331</v>
       </c>
     </row>
     <row r="8">
@@ -4833,28 +4833,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>166.3776952398977</v>
+        <v>225.2143192703465</v>
       </c>
       <c r="AB8" t="n">
-        <v>227.6453026930031</v>
+        <v>308.1481673800805</v>
       </c>
       <c r="AC8" t="n">
-        <v>205.9191545062375</v>
+        <v>278.738938774086</v>
       </c>
       <c r="AD8" t="n">
-        <v>166377.6952398977</v>
+        <v>225214.3192703465</v>
       </c>
       <c r="AE8" t="n">
-        <v>227645.3026930031</v>
+        <v>308148.1673800805</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.499931697774593e-06</v>
+        <v>3.659805960729301e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>205919.1545062375</v>
+        <v>278738.938774086</v>
       </c>
     </row>
   </sheetData>
@@ -5130,28 +5130,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.3164953215802</v>
+        <v>211.5169242606663</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.2473692128401</v>
+        <v>289.4067872414259</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.7044623968083</v>
+        <v>261.7862096521665</v>
       </c>
       <c r="AD2" t="n">
-        <v>157316.4953215802</v>
+        <v>211516.9242606662</v>
       </c>
       <c r="AE2" t="n">
-        <v>215247.3692128401</v>
+        <v>289406.7872414259</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.628758179988717e-06</v>
+        <v>4.067013379727731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194704.4623968083</v>
+        <v>261786.2096521665</v>
       </c>
     </row>
     <row r="3">
@@ -5236,28 +5236,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.6527855808276</v>
+        <v>187.1712666402455</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.4473463945644</v>
+        <v>256.0959844305718</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.0804417562686</v>
+        <v>231.6545431095642</v>
       </c>
       <c r="AD3" t="n">
-        <v>140652.7855808276</v>
+        <v>187171.2666402455</v>
       </c>
       <c r="AE3" t="n">
-        <v>192447.3463945644</v>
+        <v>256095.9844305718</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.845953248752698e-06</v>
+        <v>4.403040960126086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>174080.4417562686</v>
+        <v>231654.5431095642</v>
       </c>
     </row>
     <row r="4">
@@ -5342,28 +5342,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.9603048028881</v>
+        <v>187.478785862306</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.8681077609779</v>
+        <v>256.5167457969853</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.461046248414</v>
+        <v>232.0351476017097</v>
       </c>
       <c r="AD4" t="n">
-        <v>140960.3048028881</v>
+        <v>187478.785862306</v>
       </c>
       <c r="AE4" t="n">
-        <v>192868.1077609779</v>
+        <v>256516.7457969853</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.84568380939187e-06</v>
+        <v>4.402624104177199e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>174461.046248414</v>
+        <v>232035.1476017097</v>
       </c>
     </row>
   </sheetData>
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.2824571561631</v>
+        <v>242.3474643923539</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.8798760829439</v>
+        <v>331.5904923970161</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.5544984358148</v>
+        <v>299.9439611929225</v>
       </c>
       <c r="AD2" t="n">
-        <v>186282.4571561631</v>
+        <v>242347.4643923539</v>
       </c>
       <c r="AE2" t="n">
-        <v>254879.8760829439</v>
+        <v>331590.4923970161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321268705040431e-06</v>
+        <v>3.508119393054808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>230554.4984358148</v>
+        <v>299943.9611929226</v>
       </c>
     </row>
     <row r="3">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.3935263477726</v>
+        <v>211.4584440754123</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.6162782274741</v>
+        <v>289.3267720719979</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.3244790423254</v>
+        <v>261.7138310182066</v>
       </c>
       <c r="AD3" t="n">
-        <v>155393.5263477726</v>
+        <v>211458.4440754123</v>
       </c>
       <c r="AE3" t="n">
-        <v>212616.278227474</v>
+        <v>289326.7720719979</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.626976911691769e-06</v>
+        <v>3.970134361869409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>192324.4790423254</v>
+        <v>261713.8310182066</v>
       </c>
     </row>
     <row r="4">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.1101786568919</v>
+        <v>198.1537203813382</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.387368831965</v>
+        <v>271.1226621507912</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.7854866136833</v>
+        <v>245.2470957982453</v>
       </c>
       <c r="AD4" t="n">
-        <v>150110.1786568919</v>
+        <v>198153.7203813382</v>
       </c>
       <c r="AE4" t="n">
-        <v>205387.368831965</v>
+        <v>271122.6621507912</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.715596204648539e-06</v>
+        <v>4.104064164802343e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>185785.4866136833</v>
+        <v>245247.0957982453</v>
       </c>
     </row>
     <row r="5">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.3477917008589</v>
+        <v>198.3913334253051</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.7124814814681</v>
+        <v>271.4477748002943</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.0795709682164</v>
+        <v>245.5411801527785</v>
       </c>
       <c r="AD5" t="n">
-        <v>150347.7917008589</v>
+        <v>198391.3334253051</v>
       </c>
       <c r="AE5" t="n">
-        <v>205712.4814814681</v>
+        <v>271447.7748002943</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.715596204648539e-06</v>
+        <v>4.104064164802343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>186079.5709682164</v>
+        <v>245541.1801527785</v>
       </c>
     </row>
   </sheetData>
@@ -6254,28 +6254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.4535076136282</v>
+        <v>187.2798482190439</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.9652207870047</v>
+        <v>256.2445505369649</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.4078383119536</v>
+        <v>231.7889302752771</v>
       </c>
       <c r="AD2" t="n">
-        <v>134453.5076136282</v>
+        <v>187279.8482190439</v>
       </c>
       <c r="AE2" t="n">
-        <v>183965.2207870047</v>
+        <v>256244.5505369649</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.897360256486802e-06</v>
+        <v>4.579243089073146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>166407.8383119536</v>
+        <v>231788.9302752771</v>
       </c>
     </row>
     <row r="3">
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.9605702304258</v>
+        <v>179.2281887072515</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.290762112445</v>
+        <v>245.2279147787882</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.797749026685</v>
+        <v>221.8237067719119</v>
       </c>
       <c r="AD3" t="n">
-        <v>133960.5702304258</v>
+        <v>179228.1887072515</v>
       </c>
       <c r="AE3" t="n">
-        <v>183290.762112445</v>
+        <v>245227.9147787882</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.921370137883638e-06</v>
+        <v>4.617190418270396e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>165797.749026685</v>
+        <v>221823.7067719119</v>
       </c>
     </row>
   </sheetData>
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.1328192011063</v>
+        <v>340.2298708724771</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.3981759485304</v>
+        <v>465.5175192102827</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.9068412615275</v>
+        <v>421.0891805347944</v>
       </c>
       <c r="AD2" t="n">
-        <v>264132.8192011063</v>
+        <v>340229.8708724771</v>
       </c>
       <c r="AE2" t="n">
-        <v>361398.1759485304</v>
+        <v>465517.5192102827</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.787011526442875e-06</v>
+        <v>2.605259602522484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>326906.8412615275</v>
+        <v>421089.1805347943</v>
       </c>
     </row>
     <row r="3">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.5139557987264</v>
+        <v>266.7479830197908</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.9297491932979</v>
+        <v>364.9763584581394</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.8318924282788</v>
+        <v>330.1435270544301</v>
       </c>
       <c r="AD3" t="n">
-        <v>207513.9557987264</v>
+        <v>266747.9830197907</v>
       </c>
       <c r="AE3" t="n">
-        <v>283929.7491932979</v>
+        <v>364976.3584581394</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.171966324721973e-06</v>
+        <v>3.166479924783112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>256831.8924282788</v>
+        <v>330143.5270544301</v>
       </c>
     </row>
     <row r="4">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.3056270899953</v>
+        <v>249.6249056570768</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.3845546761412</v>
+        <v>341.5478085934545</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.533818229944</v>
+        <v>308.9509651067571</v>
       </c>
       <c r="AD4" t="n">
-        <v>190305.6270899953</v>
+        <v>249624.9056570768</v>
       </c>
       <c r="AE4" t="n">
-        <v>260384.5546761412</v>
+        <v>341547.8085934545</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.306905101839884e-06</v>
+        <v>3.363205317785392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.50260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>235533.818229944</v>
+        <v>308950.9651067571</v>
       </c>
     </row>
     <row r="5">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.1852108234219</v>
+        <v>236.0303962466143</v>
       </c>
       <c r="AB5" t="n">
-        <v>253.3785752433963</v>
+        <v>322.9472010706418</v>
       </c>
       <c r="AC5" t="n">
-        <v>229.1964796413042</v>
+        <v>292.1255734597991</v>
       </c>
       <c r="AD5" t="n">
-        <v>185185.2108234219</v>
+        <v>236030.3962466143</v>
       </c>
       <c r="AE5" t="n">
-        <v>253378.5752433963</v>
+        <v>322947.2010706417</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.381780688575466e-06</v>
+        <v>3.472365409061174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.0859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>229196.4796413042</v>
+        <v>292125.5734597991</v>
       </c>
     </row>
     <row r="6">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.3892636329345</v>
+        <v>231.6232013454443</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.8705957800317</v>
+        <v>316.9170825751474</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.3594371653141</v>
+        <v>286.6709610101883</v>
       </c>
       <c r="AD6" t="n">
-        <v>172389.2636329345</v>
+        <v>231623.2013454443</v>
       </c>
       <c r="AE6" t="n">
-        <v>235870.5957800318</v>
+        <v>316917.0825751474</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.434329997770524e-06</v>
+        <v>3.548976326428262e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>213359.4371653141</v>
+        <v>286670.9610101883</v>
       </c>
     </row>
     <row r="7">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.5526986327691</v>
+        <v>228.786636345279</v>
       </c>
       <c r="AB7" t="n">
-        <v>231.9894824063917</v>
+        <v>313.0359692015073</v>
       </c>
       <c r="AC7" t="n">
-        <v>209.8487318048761</v>
+        <v>283.1602556497503</v>
       </c>
       <c r="AD7" t="n">
-        <v>169552.6986327691</v>
+        <v>228786.636345279</v>
       </c>
       <c r="AE7" t="n">
-        <v>231989.4824063916</v>
+        <v>313035.9692015073</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.462447228327989e-06</v>
+        <v>3.589968051340068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH7" t="n">
-        <v>209848.7318048761</v>
+        <v>283160.2556497503</v>
       </c>
     </row>
     <row r="8">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>168.28166353956</v>
+        <v>227.5156012520698</v>
       </c>
       <c r="AB8" t="n">
-        <v>230.250396117753</v>
+        <v>311.2968829128686</v>
       </c>
       <c r="AC8" t="n">
-        <v>208.2756214708016</v>
+        <v>281.5871453156758</v>
       </c>
       <c r="AD8" t="n">
-        <v>168281.66353956</v>
+        <v>227515.6012520698</v>
       </c>
       <c r="AE8" t="n">
-        <v>230250.396117753</v>
+        <v>311296.8829128686</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.475823851205966e-06</v>
+        <v>3.609469646425771e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>208275.6214708016</v>
+        <v>281587.1453156758</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.7405430225893</v>
+        <v>181.7027360353235</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.516734712225</v>
+        <v>248.6136996023779</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.5747866976419</v>
+        <v>224.8863570439181</v>
       </c>
       <c r="AD2" t="n">
-        <v>129740.5430225893</v>
+        <v>181702.7360353235</v>
       </c>
       <c r="AE2" t="n">
-        <v>177516.734712225</v>
+        <v>248613.6996023779</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.94256778743664e-06</v>
+        <v>4.714684797814041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.66927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>160574.7866976419</v>
+        <v>224886.3570439181</v>
       </c>
     </row>
   </sheetData>
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.5423414619119</v>
+        <v>281.4080440376978</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.9145406450409</v>
+        <v>385.0349006990862</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.7683108011226</v>
+        <v>348.2877101762418</v>
       </c>
       <c r="AD2" t="n">
-        <v>215542.3414619119</v>
+        <v>281408.0440376978</v>
       </c>
       <c r="AE2" t="n">
-        <v>294914.5406450409</v>
+        <v>385034.9006990861</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073186716319317e-06</v>
+        <v>3.078357192105928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>266768.3108011226</v>
+        <v>348287.7101762418</v>
       </c>
     </row>
     <row r="3">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.2006333842755</v>
+        <v>236.6625309374928</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.1902123702373</v>
+        <v>323.8121156425158</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.7896026283174</v>
+        <v>292.9079417988489</v>
       </c>
       <c r="AD3" t="n">
-        <v>179200.6333842755</v>
+        <v>236662.5309374928</v>
       </c>
       <c r="AE3" t="n">
-        <v>245190.2123702373</v>
+        <v>323812.1156425158</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408496984311011e-06</v>
+        <v>3.576240362461054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.45052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>221789.6026283174</v>
+        <v>292907.9417988489</v>
       </c>
     </row>
     <row r="4">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.5788747551907</v>
+        <v>221.1260236544286</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.8158330305836</v>
+        <v>302.5543809555112</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.4551640537036</v>
+        <v>273.6790154749473</v>
       </c>
       <c r="AD4" t="n">
-        <v>163578.8747551907</v>
+        <v>221126.0236544286</v>
       </c>
       <c r="AE4" t="n">
-        <v>223815.8330305836</v>
+        <v>302554.3809555112</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.527564720073605e-06</v>
+        <v>3.753037279905752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>202455.1640537036</v>
+        <v>273679.0154749473</v>
       </c>
     </row>
     <row r="5">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.9559481641036</v>
+        <v>208.2699737499198</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.4905409195343</v>
+        <v>284.9641663072782</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.7335489441276</v>
+        <v>257.7675862247146</v>
       </c>
       <c r="AD5" t="n">
-        <v>158955.9481641036</v>
+        <v>208269.9737499198</v>
       </c>
       <c r="AE5" t="n">
-        <v>217490.5409195343</v>
+        <v>284964.1663072782</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.590357650509206e-06</v>
+        <v>3.846274935490878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>196733.5489441276</v>
+        <v>257767.5862247147</v>
       </c>
     </row>
     <row r="6">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.4503384121022</v>
+        <v>207.7643639979185</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.7987433509184</v>
+        <v>284.2723687386622</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.1077755645162</v>
+        <v>257.1418128451033</v>
       </c>
       <c r="AD6" t="n">
-        <v>158450.3384121023</v>
+        <v>207764.3639979184</v>
       </c>
       <c r="AE6" t="n">
-        <v>216798.7433509184</v>
+        <v>284272.3687386622</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.599537758009498e-06</v>
+        <v>3.859905955661604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>196107.7755645162</v>
+        <v>257141.8128451033</v>
       </c>
     </row>
   </sheetData>
@@ -8608,28 +8608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.5254490214459</v>
+        <v>305.3082466486019</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.3610423511246</v>
+        <v>417.7362123138484</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.21360251983</v>
+        <v>377.8680545070702</v>
       </c>
       <c r="AD2" t="n">
-        <v>238525.4490214459</v>
+        <v>305308.246648602</v>
       </c>
       <c r="AE2" t="n">
-        <v>326361.0423511246</v>
+        <v>417736.2123138484</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.928809632802793e-06</v>
+        <v>2.836203618251612e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>295213.60251983</v>
+        <v>377868.0545070702</v>
       </c>
     </row>
     <row r="3">
@@ -8714,28 +8714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.8167091227401</v>
+        <v>255.5140763867696</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.347351426919</v>
+        <v>349.6056317976922</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.6910427995942</v>
+        <v>316.2397609736107</v>
       </c>
       <c r="AD3" t="n">
-        <v>188816.7091227401</v>
+        <v>255514.0763867696</v>
       </c>
       <c r="AE3" t="n">
-        <v>258347.351426919</v>
+        <v>349605.6317976922</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.289766728174137e-06</v>
+        <v>3.366970264433366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>233691.0427995942</v>
+        <v>316239.7609736107</v>
       </c>
     </row>
     <row r="4">
@@ -8820,28 +8820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.2753582211756</v>
+        <v>231.4264844596061</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.0289424224826</v>
+        <v>316.6479258534072</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.3574082685599</v>
+        <v>286.4274922282071</v>
       </c>
       <c r="AD4" t="n">
-        <v>181275.3582211756</v>
+        <v>231426.4844596061</v>
       </c>
       <c r="AE4" t="n">
-        <v>248028.9424224826</v>
+        <v>316647.9258534072</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.415107178228125e-06</v>
+        <v>3.551276186547533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.13802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>224357.4082685599</v>
+        <v>286427.4922282071</v>
       </c>
     </row>
     <row r="5">
@@ -8926,28 +8926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.6557087643187</v>
+        <v>226.0799107612732</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.3939371790927</v>
+        <v>309.3325078451674</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.5009017711991</v>
+        <v>279.8102474474177</v>
       </c>
       <c r="AD5" t="n">
-        <v>167655.7087643187</v>
+        <v>226079.9107612732</v>
       </c>
       <c r="AE5" t="n">
-        <v>229393.9371790927</v>
+        <v>309332.5078451674</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.493134167847498e-06</v>
+        <v>3.666010386603435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>207500.9017711991</v>
+        <v>279810.2474474177</v>
       </c>
     </row>
     <row r="6">
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.2852524457581</v>
+        <v>222.7094544427125</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.7823301500018</v>
+        <v>304.7209008160765</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.329420044532</v>
+        <v>275.6387657207506</v>
       </c>
       <c r="AD6" t="n">
-        <v>164285.2524457581</v>
+        <v>222709.4544427125</v>
       </c>
       <c r="AE6" t="n">
-        <v>224782.3301500018</v>
+        <v>304720.9008160765</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.528113464974583e-06</v>
+        <v>3.717445430989633e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.55208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>203329.420044532</v>
+        <v>275638.7657207506</v>
       </c>
     </row>
     <row r="7">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.281866630425</v>
+        <v>213.3476520142839</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.4094534112057</v>
+        <v>291.9116697199327</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.0875687348416</v>
+        <v>264.05202966255</v>
       </c>
       <c r="AD7" t="n">
-        <v>163281.8666304249</v>
+        <v>213347.6520142839</v>
       </c>
       <c r="AE7" t="n">
-        <v>223409.4534112057</v>
+        <v>291911.6697199327</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.539667602144087e-06</v>
+        <v>3.734435125093506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>202087.5687348416</v>
+        <v>264052.02966255</v>
       </c>
     </row>
   </sheetData>
@@ -9435,28 +9435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.1091029823652</v>
+        <v>366.2618085113072</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.5718292939227</v>
+        <v>501.1355647357653</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.8190090946592</v>
+        <v>453.3078897855657</v>
       </c>
       <c r="AD2" t="n">
-        <v>289109.1029823652</v>
+        <v>366261.8085113072</v>
       </c>
       <c r="AE2" t="n">
-        <v>395571.8292939227</v>
+        <v>501135.5647357653</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.671224560336112e-06</v>
+        <v>2.417881746358329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>357819.0090946592</v>
+        <v>453307.8897855657</v>
       </c>
     </row>
     <row r="3">
@@ -9541,28 +9541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.9456956963558</v>
+        <v>286.5163165084203</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.2029159371111</v>
+        <v>392.024264454605</v>
       </c>
       <c r="AC3" t="n">
-        <v>269.7428481705824</v>
+        <v>354.6100188645676</v>
       </c>
       <c r="AD3" t="n">
-        <v>217945.6956963558</v>
+        <v>286516.3165084203</v>
       </c>
       <c r="AE3" t="n">
-        <v>298202.9159371111</v>
+        <v>392024.264454605</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065179087771568e-06</v>
+        <v>2.987844325528323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.83072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>269742.8481705824</v>
+        <v>354610.0188645676</v>
       </c>
     </row>
     <row r="4">
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.4555040139469</v>
+        <v>258.5294704722536</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.5355758306806</v>
+        <v>353.7314270154148</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.6206015760542</v>
+        <v>319.9717960862388</v>
       </c>
       <c r="AD4" t="n">
-        <v>198455.5040139469</v>
+        <v>258529.4704722536</v>
       </c>
       <c r="AE4" t="n">
-        <v>271535.5758306806</v>
+        <v>353731.4270154148</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.222017410746051e-06</v>
+        <v>3.214753699199321e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.7890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>245620.6015760542</v>
+        <v>319971.7960862388</v>
       </c>
     </row>
     <row r="5">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.3184950536507</v>
+        <v>253.2218693113619</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.5068935423661</v>
+        <v>346.4693329520817</v>
       </c>
       <c r="AC5" t="n">
-        <v>239.2627268605166</v>
+        <v>313.4027860880013</v>
       </c>
       <c r="AD5" t="n">
-        <v>193318.4950536506</v>
+        <v>253221.8693113619</v>
       </c>
       <c r="AE5" t="n">
-        <v>264506.893542366</v>
+        <v>346469.3329520817</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.295613311475752e-06</v>
+        <v>3.321230224978331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>239262.7268605166</v>
+        <v>313402.7860880013</v>
       </c>
     </row>
     <row r="6">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.1773897041118</v>
+        <v>240.6694504626372</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.8408505104556</v>
+        <v>329.294559709629</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.1374430232285</v>
+        <v>297.8671490988572</v>
       </c>
       <c r="AD6" t="n">
-        <v>189177.3897041118</v>
+        <v>240669.4504626372</v>
       </c>
       <c r="AE6" t="n">
-        <v>258840.8505104556</v>
+        <v>329294.559709629</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.347586887150914e-06</v>
+        <v>3.396424165338252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>234137.4430232286</v>
+        <v>297867.1490988572</v>
       </c>
     </row>
     <row r="7">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>177.8155188206063</v>
+        <v>237.8041444243381</v>
       </c>
       <c r="AB7" t="n">
-        <v>243.2950375172843</v>
+        <v>325.3741215796492</v>
       </c>
       <c r="AC7" t="n">
-        <v>220.075300603435</v>
+        <v>294.3208720816319</v>
       </c>
       <c r="AD7" t="n">
-        <v>177815.5188206063</v>
+        <v>237804.1444243381</v>
       </c>
       <c r="AE7" t="n">
-        <v>243295.0375172843</v>
+        <v>325374.1215796492</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.375044181317014e-06</v>
+        <v>3.436148623645191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>220075.300603435</v>
+        <v>294320.8720816319</v>
       </c>
     </row>
     <row r="8">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>174.7851018103183</v>
+        <v>234.7737274140501</v>
       </c>
       <c r="AB8" t="n">
-        <v>239.1486872712473</v>
+        <v>321.2277713336122</v>
       </c>
       <c r="AC8" t="n">
-        <v>216.3246722054393</v>
+        <v>290.5702436836362</v>
       </c>
       <c r="AD8" t="n">
-        <v>174785.1018103182</v>
+        <v>234773.7274140501</v>
       </c>
       <c r="AE8" t="n">
-        <v>239148.6872712473</v>
+        <v>321227.7713336122</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.401983857255475e-06</v>
+        <v>3.475124206131433e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>216324.6722054393</v>
+        <v>290570.2436836362</v>
       </c>
     </row>
     <row r="9">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>173.1006590781613</v>
+        <v>233.0892846818932</v>
       </c>
       <c r="AB9" t="n">
-        <v>236.8439584127428</v>
+        <v>318.9230424751076</v>
       </c>
       <c r="AC9" t="n">
-        <v>214.2399034344824</v>
+        <v>288.4854749126794</v>
       </c>
       <c r="AD9" t="n">
-        <v>173100.6590781613</v>
+        <v>233089.2846818932</v>
       </c>
       <c r="AE9" t="n">
-        <v>236843.9584127427</v>
+        <v>318923.0424751076</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.414712560035133e-06</v>
+        <v>3.493539743358557e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>214239.9034344824</v>
+        <v>288485.4749126793</v>
       </c>
     </row>
   </sheetData>
@@ -10474,28 +10474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.8895123423421</v>
+        <v>257.570645353361</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.9199404713723</v>
+        <v>352.4195201872005</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.7317917668246</v>
+        <v>318.7850958045424</v>
       </c>
       <c r="AD2" t="n">
-        <v>192889.5123423421</v>
+        <v>257570.645353361</v>
       </c>
       <c r="AE2" t="n">
-        <v>263919.9404713723</v>
+        <v>352419.5201872005</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.238891368925336e-06</v>
+        <v>3.362108721210515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>238731.7917668245</v>
+        <v>318785.0958045424</v>
       </c>
     </row>
     <row r="3">
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.8553903547933</v>
+        <v>217.4303352625373</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.0353944573955</v>
+        <v>297.4977770554632</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.985700670661</v>
+        <v>269.10500675413</v>
       </c>
       <c r="AD3" t="n">
-        <v>168855.3903547933</v>
+        <v>217430.3352625373</v>
       </c>
       <c r="AE3" t="n">
-        <v>231035.3944573955</v>
+        <v>297497.7770554632</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.547646042182926e-06</v>
+        <v>3.825760863552783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>208985.700670661</v>
+        <v>269105.0067541301</v>
       </c>
     </row>
     <row r="4">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.0025526924912</v>
+        <v>202.4921567456636</v>
       </c>
       <c r="AB4" t="n">
-        <v>210.7130867068923</v>
+        <v>277.0587021827623</v>
       </c>
       <c r="AC4" t="n">
-        <v>190.6029254493213</v>
+        <v>250.6166085008516</v>
       </c>
       <c r="AD4" t="n">
-        <v>154002.5526924912</v>
+        <v>202492.1567456636</v>
       </c>
       <c r="AE4" t="n">
-        <v>210713.0867068923</v>
+        <v>277058.7021827623</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662544524877465e-06</v>
+        <v>3.998302147191117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>190602.9254493213</v>
+        <v>250616.6085008516</v>
       </c>
     </row>
     <row r="5">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>152.8682529842962</v>
+        <v>201.3578570374686</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.1610878043694</v>
+        <v>275.5067032802394</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.1990471438105</v>
+        <v>249.2127301953408</v>
       </c>
       <c r="AD5" t="n">
-        <v>152868.2529842962</v>
+        <v>201357.8570374686</v>
       </c>
       <c r="AE5" t="n">
-        <v>209161.0878043694</v>
+        <v>275506.7032802394</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.674965982466064e-06</v>
+        <v>4.016955258935802e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>189199.0471438105</v>
+        <v>249212.7301953408</v>
       </c>
     </row>
   </sheetData>
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.290146510559</v>
+        <v>219.2974904551214</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.7890264253733</v>
+        <v>300.0525011630289</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.3354772367805</v>
+        <v>271.4159115784483</v>
       </c>
       <c r="AD2" t="n">
-        <v>164290.146510559</v>
+        <v>219297.4904551214</v>
       </c>
       <c r="AE2" t="n">
-        <v>224789.0264253733</v>
+        <v>300052.5011630289</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.521919894813479e-06</v>
+        <v>3.86798643961032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.68489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>203335.4772367805</v>
+        <v>271415.9115784484</v>
       </c>
     </row>
     <row r="3">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.4873502977634</v>
+        <v>191.5512509042248</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.6939670093293</v>
+        <v>262.0888721318134</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.8263322632403</v>
+        <v>237.075478019672</v>
       </c>
       <c r="AD3" t="n">
-        <v>144487.3502977634</v>
+        <v>191551.2509042248</v>
       </c>
       <c r="AE3" t="n">
-        <v>197693.9670093293</v>
+        <v>262088.8721318135</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793613246673372e-06</v>
+        <v>4.28469523471821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178826.3322632403</v>
+        <v>237075.478019672</v>
       </c>
     </row>
     <row r="4">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.3141576532825</v>
+        <v>191.3780582597439</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.4569971924304</v>
+        <v>261.8519023149146</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.6119785130769</v>
+        <v>236.8611242695087</v>
       </c>
       <c r="AD4" t="n">
-        <v>144314.1576532825</v>
+        <v>191378.0582597439</v>
       </c>
       <c r="AE4" t="n">
-        <v>197456.9971924304</v>
+        <v>261851.9023149146</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800003224012909e-06</v>
+        <v>4.294495841688152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178611.9785130769</v>
+        <v>236861.1242695086</v>
       </c>
     </row>
   </sheetData>
@@ -20179,28 +20179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.1777501574532</v>
+        <v>195.7702299335207</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.5338702049914</v>
+        <v>267.8614653679116</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.9678306626837</v>
+        <v>242.2971430592043</v>
       </c>
       <c r="AD2" t="n">
-        <v>142177.7501574532</v>
+        <v>195770.2299335207</v>
       </c>
       <c r="AE2" t="n">
-        <v>194533.8702049914</v>
+        <v>267861.4653679117</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.755577011331664e-06</v>
+        <v>4.305534725441874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175967.8306626837</v>
+        <v>242297.1430592043</v>
       </c>
     </row>
     <row r="3">
@@ -20285,28 +20285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.5034626708644</v>
+        <v>183.4277718653916</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.1383038508339</v>
+        <v>250.9739697282856</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.1826481851311</v>
+        <v>227.0213663016698</v>
       </c>
       <c r="AD3" t="n">
-        <v>137503.4626708644</v>
+        <v>183427.7718653916</v>
       </c>
       <c r="AE3" t="n">
-        <v>188138.3038508339</v>
+        <v>250973.9697282856</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.879167380342677e-06</v>
+        <v>4.498642239156374e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.40885416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>170182.6481851311</v>
+        <v>227021.3663016699</v>
       </c>
     </row>
   </sheetData>
@@ -20582,28 +20582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.4316050628142</v>
+        <v>176.1822315263529</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.1987645169373</v>
+        <v>241.0603017857379</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.9054087455548</v>
+        <v>218.0538449136353</v>
       </c>
       <c r="AD2" t="n">
-        <v>132431.6050628143</v>
+        <v>176182.2315263529</v>
       </c>
       <c r="AE2" t="n">
-        <v>181198.7645169373</v>
+        <v>241060.3017857379</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.946064248265942e-06</v>
+        <v>4.801130591965309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>163905.4087455548</v>
+        <v>218053.8449136353</v>
       </c>
     </row>
   </sheetData>
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.5455518965205</v>
+        <v>297.8378656642724</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.810839173478</v>
+        <v>407.5149074811396</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.5748573296607</v>
+        <v>368.6222566619037</v>
       </c>
       <c r="AD2" t="n">
-        <v>231545.5518965205</v>
+        <v>297837.8656642725</v>
       </c>
       <c r="AE2" t="n">
-        <v>316810.839173478</v>
+        <v>407514.9074811396</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.994570289726952e-06</v>
+        <v>2.946739859804138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>286574.8573296607</v>
+        <v>368622.2566619038</v>
       </c>
     </row>
     <row r="3">
@@ -20985,28 +20985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>184.3150969771677</v>
+        <v>242.3954664517152</v>
       </c>
       <c r="AB3" t="n">
-        <v>252.1880470922382</v>
+        <v>331.6561709323357</v>
       </c>
       <c r="AC3" t="n">
-        <v>228.1195738259754</v>
+        <v>300.0033714610116</v>
       </c>
       <c r="AD3" t="n">
-        <v>184315.0969771676</v>
+        <v>242395.4664517152</v>
       </c>
       <c r="AE3" t="n">
-        <v>252188.0470922382</v>
+        <v>331656.1709323357</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.341528077513737e-06</v>
+        <v>3.459328635545276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.68489583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>228119.5738259754</v>
+        <v>300003.3714610116</v>
       </c>
     </row>
     <row r="4">
@@ -21091,28 +21091,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.3629887393555</v>
+        <v>226.3580173593315</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.3616688439277</v>
+        <v>309.7130255618276</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.3762744841625</v>
+        <v>280.1544490872599</v>
       </c>
       <c r="AD4" t="n">
-        <v>168362.9887393555</v>
+        <v>226358.0173593315</v>
       </c>
       <c r="AE4" t="n">
-        <v>230361.6688439277</v>
+        <v>309713.0255618276</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.471467991225413e-06</v>
+        <v>3.651299369836181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>208376.2744841625</v>
+        <v>280154.4490872599</v>
       </c>
     </row>
     <row r="5">
@@ -21197,28 +21197,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.2111655419389</v>
+        <v>221.2061941619149</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.3127170628272</v>
+        <v>302.6640737807271</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.000064767782</v>
+        <v>273.7782393708795</v>
       </c>
       <c r="AD5" t="n">
-        <v>163211.1655419389</v>
+        <v>221206.1941619149</v>
       </c>
       <c r="AE5" t="n">
-        <v>223312.7170628272</v>
+        <v>302664.0737807271</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.545350083125515e-06</v>
+        <v>3.760451354225535e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.59114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>202000.0647677821</v>
+        <v>273778.2393708795</v>
       </c>
     </row>
     <row r="6">
@@ -21303,28 +21303,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.8415656215592</v>
+        <v>210.5394881108651</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.0705259123949</v>
+        <v>288.0694159798292</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.0673037903021</v>
+        <v>260.5764752267637</v>
       </c>
       <c r="AD6" t="n">
-        <v>160841.5656215592</v>
+        <v>210539.4881108651</v>
       </c>
       <c r="AE6" t="n">
-        <v>220070.5259123949</v>
+        <v>288069.4159798292</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.569846144918451e-06</v>
+        <v>3.796641365710841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>199067.3037903021</v>
+        <v>260576.4752267637</v>
       </c>
     </row>
     <row r="7">
@@ -21409,28 +21409,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.1451338360587</v>
+        <v>210.8430563253646</v>
       </c>
       <c r="AB7" t="n">
-        <v>220.4858813359572</v>
+        <v>288.4847714033916</v>
       </c>
       <c r="AC7" t="n">
-        <v>199.4430182751947</v>
+        <v>260.9521897116564</v>
       </c>
       <c r="AD7" t="n">
-        <v>161145.1338360587</v>
+        <v>210843.0563253646</v>
       </c>
       <c r="AE7" t="n">
-        <v>220485.8813359572</v>
+        <v>288484.7714033916</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568664425354571e-06</v>
+        <v>3.794895515910545e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>199443.0182751947</v>
+        <v>260952.1897116564</v>
       </c>
     </row>
   </sheetData>
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.4891792569898</v>
+        <v>356.6083259549129</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.4634723166909</v>
+        <v>487.9272440205135</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.0115198710428</v>
+        <v>441.3601526613828</v>
       </c>
       <c r="AD2" t="n">
-        <v>271489.1792569897</v>
+        <v>356608.3259549129</v>
       </c>
       <c r="AE2" t="n">
-        <v>371463.4723166908</v>
+        <v>487927.2440205135</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731813943950652e-06</v>
+        <v>2.514886550239074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336011.5198710428</v>
+        <v>441360.1526613828</v>
       </c>
     </row>
     <row r="3">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.6871810412849</v>
+        <v>280.8337029123691</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.0079841967532</v>
+        <v>384.2490618332693</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.2345906173718</v>
+        <v>347.5768706688467</v>
       </c>
       <c r="AD3" t="n">
-        <v>212687.1810412849</v>
+        <v>280833.702912369</v>
       </c>
       <c r="AE3" t="n">
-        <v>291007.9841967532</v>
+        <v>384249.0618332693</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.120101438582638e-06</v>
+        <v>3.078745619099782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>263234.5906173718</v>
+        <v>347576.8706688467</v>
       </c>
     </row>
     <row r="4">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.0034179070507</v>
+        <v>254.7062977919964</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.8122793239369</v>
+        <v>348.5003934876475</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.3480898587244</v>
+        <v>315.2400050566647</v>
       </c>
       <c r="AD4" t="n">
-        <v>195003.4179070507</v>
+        <v>254706.2977919964</v>
       </c>
       <c r="AE4" t="n">
-        <v>266812.2793239369</v>
+        <v>348500.3934876475</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.25511360525647e-06</v>
+        <v>3.274806104276436e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>241348.0898587244</v>
+        <v>315240.0050566647</v>
       </c>
     </row>
     <row r="5">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.8838856939723</v>
+        <v>240.0578722467625</v>
       </c>
       <c r="AB5" t="n">
-        <v>258.4392653752998</v>
+        <v>328.457771413743</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.7741846097437</v>
+        <v>297.1102227034905</v>
       </c>
       <c r="AD5" t="n">
-        <v>188883.8856939723</v>
+        <v>240057.8722467625</v>
       </c>
       <c r="AE5" t="n">
-        <v>258439.2653752998</v>
+        <v>328457.771413743</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.345335230605371e-06</v>
+        <v>3.405823153147779e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>233774.1846097437</v>
+        <v>297110.2227034905</v>
       </c>
     </row>
     <row r="6">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.9924246256458</v>
+        <v>236.6099636560199</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.1688437273868</v>
+        <v>323.7401907688998</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.056589168222</v>
+        <v>292.8428813342236</v>
       </c>
       <c r="AD6" t="n">
-        <v>176992.4246256458</v>
+        <v>236609.9636560199</v>
       </c>
       <c r="AE6" t="n">
-        <v>242168.8437273868</v>
+        <v>323740.1907688997</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.38450323046102e-06</v>
+        <v>3.462701708942307e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>219056.589168222</v>
+        <v>292842.8813342236</v>
       </c>
     </row>
     <row r="7">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>173.1242258716523</v>
+        <v>232.7417649020264</v>
       </c>
       <c r="AB7" t="n">
-        <v>236.8762035392906</v>
+        <v>318.4475505808035</v>
       </c>
       <c r="AC7" t="n">
-        <v>214.2690711314089</v>
+        <v>288.0553632974105</v>
       </c>
       <c r="AD7" t="n">
-        <v>173124.2258716523</v>
+        <v>232741.7649020264</v>
       </c>
       <c r="AE7" t="n">
-        <v>236876.2035392906</v>
+        <v>318447.5505808035</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.424928591911066e-06</v>
+        <v>3.52140616628566e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>214269.0711314089</v>
+        <v>288055.3632974104</v>
       </c>
     </row>
     <row r="8">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>171.2678947062936</v>
+        <v>230.8854337366677</v>
       </c>
       <c r="AB8" t="n">
-        <v>234.336289343297</v>
+        <v>315.9076363848098</v>
       </c>
       <c r="AC8" t="n">
-        <v>211.9715627814881</v>
+        <v>285.7578549474897</v>
       </c>
       <c r="AD8" t="n">
-        <v>171267.8947062936</v>
+        <v>230885.4337366677</v>
       </c>
       <c r="AE8" t="n">
-        <v>234336.289343297</v>
+        <v>315907.6363848099</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.437241246014689e-06</v>
+        <v>3.539286221075097e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.66927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>211971.5627814881</v>
+        <v>285757.8549474897</v>
       </c>
     </row>
     <row r="9">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>171.386344910049</v>
+        <v>231.0038839404232</v>
       </c>
       <c r="AB9" t="n">
-        <v>234.4983581377293</v>
+        <v>316.0697051792422</v>
       </c>
       <c r="AC9" t="n">
-        <v>212.1181639576449</v>
+        <v>285.9044561236464</v>
       </c>
       <c r="AD9" t="n">
-        <v>171386.3449100491</v>
+        <v>231003.8839404231</v>
       </c>
       <c r="AE9" t="n">
-        <v>234498.3581377293</v>
+        <v>316069.7051792422</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.437383588836696e-06</v>
+        <v>3.539492926910812e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.66927083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>212118.1639576449</v>
+        <v>285904.4561236464</v>
       </c>
     </row>
   </sheetData>
@@ -22745,28 +22745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.5751565380569</v>
+        <v>176.3848043298839</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.1857132770941</v>
+        <v>241.3374708324103</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.6571118696517</v>
+        <v>218.3045613355027</v>
       </c>
       <c r="AD2" t="n">
-        <v>126575.1565380569</v>
+        <v>176384.8043298839</v>
       </c>
       <c r="AE2" t="n">
-        <v>173185.7132770941</v>
+        <v>241337.4708324103</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86397390442913e-06</v>
+        <v>4.774073865862397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>156657.1118696517</v>
+        <v>218304.5613355027</v>
       </c>
     </row>
   </sheetData>
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.4297369807987</v>
+        <v>234.9422724654885</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.5036820183375</v>
+        <v>321.458382108673</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.0731551731605</v>
+        <v>290.7788452899896</v>
       </c>
       <c r="AD2" t="n">
-        <v>179429.7369807987</v>
+        <v>234942.2724654885</v>
       </c>
       <c r="AE2" t="n">
-        <v>245503.6820183375</v>
+        <v>321458.382108673</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.416156894041364e-06</v>
+        <v>3.677165176160432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.07552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>222073.1551731605</v>
+        <v>290778.8452899896</v>
       </c>
     </row>
     <row r="3">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.9765326274869</v>
+        <v>205.4889786036257</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.2045084384864</v>
+        <v>281.1590860592735</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.6200781595122</v>
+        <v>254.3256574951147</v>
       </c>
       <c r="AD3" t="n">
-        <v>149976.5326274869</v>
+        <v>205488.9786036257</v>
       </c>
       <c r="AE3" t="n">
-        <v>205204.5084384864</v>
+        <v>281159.0860592735</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.707875557903334e-06</v>
+        <v>4.121133742371812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.56510416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>185620.0781595122</v>
+        <v>254325.6574951147</v>
       </c>
     </row>
     <row r="4">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.038520528242</v>
+        <v>194.608515037116</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.1845906683555</v>
+        <v>266.2719557954074</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.9838156993713</v>
+        <v>240.8593340494088</v>
       </c>
       <c r="AD4" t="n">
-        <v>147038.520528242</v>
+        <v>194608.515037116</v>
       </c>
       <c r="AE4" t="n">
-        <v>201184.5906683555</v>
+        <v>266271.9557954074</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.763319087210553e-06</v>
+        <v>4.205513616756098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>181983.8156993713</v>
+        <v>240859.3340494088</v>
       </c>
     </row>
   </sheetData>
@@ -23551,28 +23551,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.6365995980928</v>
+        <v>273.7957766217527</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.4657999671392</v>
+        <v>374.6194605910534</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.221344672126</v>
+        <v>338.8663050539576</v>
       </c>
       <c r="AD2" t="n">
-        <v>208636.5995980928</v>
+        <v>273795.7766217527</v>
       </c>
       <c r="AE2" t="n">
-        <v>285465.7999671391</v>
+        <v>374619.4605910534</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.148164535074269e-06</v>
+        <v>3.207017806929782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.24739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>258221.3446721259</v>
+        <v>338866.3050539576</v>
       </c>
     </row>
     <row r="3">
@@ -23657,28 +23657,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.1865489616049</v>
+        <v>231.1795048322302</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.3297208573501</v>
+        <v>316.3099974312595</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.5838667966576</v>
+        <v>286.1218152203835</v>
       </c>
       <c r="AD3" t="n">
-        <v>174186.5489616049</v>
+        <v>231179.5048322302</v>
       </c>
       <c r="AE3" t="n">
-        <v>238329.7208573501</v>
+        <v>316309.9974312595</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.470609327047827e-06</v>
+        <v>3.688399085098597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.25520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>215583.8667966576</v>
+        <v>286121.8152203835</v>
       </c>
     </row>
     <row r="4">
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.1781921069715</v>
+        <v>216.2563993236174</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.7946248868768</v>
+        <v>295.8915461134355</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.0086115644116</v>
+        <v>267.6520722388497</v>
       </c>
       <c r="AD4" t="n">
-        <v>159178.1921069715</v>
+        <v>216256.3993236174</v>
       </c>
       <c r="AE4" t="n">
-        <v>217794.6248868768</v>
+        <v>295891.5461134355</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.59017400923306e-06</v>
+        <v>3.866898477760196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>197008.6115644115</v>
+        <v>267652.0722388497</v>
       </c>
     </row>
     <row r="5">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.6394326061803</v>
+        <v>204.5515081783462</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.9527380188457</v>
+        <v>279.8763976651304</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.628827583433</v>
+        <v>253.1653870810438</v>
       </c>
       <c r="AD5" t="n">
-        <v>155639.4326061803</v>
+        <v>204551.5081783462</v>
       </c>
       <c r="AE5" t="n">
-        <v>212952.7380188457</v>
+        <v>279876.3976651304</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.635781156045983e-06</v>
+        <v>3.934985874961011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>192628.827583433</v>
+        <v>253165.3870810438</v>
       </c>
     </row>
     <row r="6">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>155.849880810174</v>
+        <v>204.7619563823399</v>
       </c>
       <c r="AB6" t="n">
-        <v>213.2406825358694</v>
+        <v>280.1643421821541</v>
       </c>
       <c r="AC6" t="n">
-        <v>192.8892910798846</v>
+        <v>253.4258505774955</v>
       </c>
       <c r="AD6" t="n">
-        <v>155849.880810174</v>
+        <v>204761.9563823399</v>
       </c>
       <c r="AE6" t="n">
-        <v>213240.6825358694</v>
+        <v>280164.3421821541</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.635630222300326e-06</v>
+        <v>3.934760544358031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>192889.2910798846</v>
+        <v>253425.8505774954</v>
       </c>
     </row>
   </sheetData>
